--- a/data/trans_orig/IP07C22_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646514ED-3DB9-4629-9E76-C1ACAED1A7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B480FC66-9BC4-4BCD-BCB0-1E555513BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD5668D2-9C6A-42A1-96CF-B2234D8F0787}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{430719EB-71FF-421B-92F3-2C6555E34183}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>34,66%</t>
+    <t>32,13%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>16,1%</t>
+    <t>13,35%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -98,13 +98,13 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>16,2%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -113,22 +113,22 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>18,52%</t>
+    <t>15,49%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>22,65%</t>
+    <t>22,02%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -137,28 +137,28 @@
     <t>47,96%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>36,81%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -167,28 +167,28 @@
     <t>48,58%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>61,59%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,34 +200,34 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -236,325 +236,319 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>6,53%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>8,5%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -969,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C4E425-2390-42AB-8073-856BF8E07F7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA1E14-28BE-4F9C-BD3E-0189AD338E90}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1790,13 +1784,13 @@
         <v>570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1805,13 @@
         <v>1846</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1826,13 +1820,13 @@
         <v>1183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1841,13 +1835,13 @@
         <v>3029</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1856,13 @@
         <v>13178</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -1877,13 +1871,13 @@
         <v>6923</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -1892,13 +1886,13 @@
         <v>20101</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1907,13 @@
         <v>38136</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -1928,13 +1922,13 @@
         <v>31140</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -1943,13 +1937,13 @@
         <v>69277</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2011,13 @@
         <v>2774</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2032,13 +2026,13 @@
         <v>4527</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2047,13 +2041,13 @@
         <v>7301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2062,13 @@
         <v>852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2083,13 +2077,13 @@
         <v>4875</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2098,13 +2092,13 @@
         <v>5727</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2113,13 @@
         <v>18864</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2134,13 +2128,13 @@
         <v>10428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -2149,13 +2143,13 @@
         <v>29292</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2164,13 @@
         <v>90530</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -2185,13 +2179,13 @@
         <v>68367</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -2200,13 +2194,13 @@
         <v>158897</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2215,13 @@
         <v>154160</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -2236,13 +2230,13 @@
         <v>114349</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>347</v>
@@ -2251,13 +2245,13 @@
         <v>268509</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2307,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C22_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B480FC66-9BC4-4BCD-BCB0-1E555513BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F913F94A-1551-48A9-B6E5-1A194D1E9C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{430719EB-71FF-421B-92F3-2C6555E34183}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{76B504BB-7FBB-439B-B801-49CEE22E821D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
-  <si>
-    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="168">
+  <si>
+    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,124 +71,124 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,358 +197,346 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -963,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA1E14-28BE-4F9C-BD3E-0189AD338E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD0BEF1-CA25-4740-95BE-697647B9B6DA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1081,10 +1069,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7521</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1096,235 +1084,235 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>989</v>
+        <v>9058</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>989</v>
+        <v>16579</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4529</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>391</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
       <c r="N5" s="7">
-        <v>391</v>
+        <v>8518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>898</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>586</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
       <c r="I6" s="7">
-        <v>728</v>
+        <v>596</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1314</v>
+        <v>1494</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>8114</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3235</v>
+        <v>783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>11349</v>
+        <v>783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8218</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>8568</v>
+        <v>1788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>16785</v>
+        <v>1788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>50</v>
@@ -1336,25 +1324,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1369,7 +1357,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>51</v>
@@ -1389,10 +1377,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
-        <v>2774</v>
+        <v>107088</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>53</v>
@@ -1404,10 +1392,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>2806</v>
+        <v>127669</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
@@ -1419,10 +1407,10 @@
         <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>5581</v>
+        <v>234757</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>59</v>
@@ -1437,205 +1425,205 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>852</v>
+        <v>44927</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>3914</v>
+        <v>58454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="N11" s="7">
-        <v>4766</v>
+        <v>103381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>16432</v>
+        <v>6029</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>8517</v>
+        <v>14100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>24949</v>
+        <v>20128</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>69239</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>67</v>
-      </c>
-      <c r="I13" s="7">
-        <v>58209</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1080</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M13" s="7">
-        <v>135</v>
-      </c>
-      <c r="N13" s="7">
-        <v>127448</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>107806</v>
+        <v>1269</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1398</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2668</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>109</v>
-      </c>
-      <c r="I14" s="7">
-        <v>74641</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="7">
-        <v>234</v>
-      </c>
-      <c r="N14" s="7">
-        <v>182447</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,25 +1632,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -1677,7 +1665,7 @@
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -1691,259 +1679,259 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>21965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7">
+        <v>38</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29645</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>732</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>70</v>
+      </c>
+      <c r="N16" s="7">
+        <v>51610</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>732</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>13167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>570</v>
+        <v>19701</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>570</v>
+        <v>32867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>1846</v>
+        <v>3457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1183</v>
+        <v>943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>3029</v>
+        <v>4401</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>13178</v>
+        <v>163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>6923</v>
+        <v>1168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>20101</v>
+        <v>1331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>38136</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>31140</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
       <c r="M20" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>69277</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
-        <v>53160</v>
+        <v>38752</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>51</v>
@@ -1967,10 +1955,10 @@
         <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>51457</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -1982,10 +1970,10 @@
         <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>90209</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>51</v>
@@ -2005,76 +1993,76 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="D22" s="7">
-        <v>2774</v>
+        <v>136574</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>184</v>
+      </c>
+      <c r="I22" s="7">
+        <v>166372</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4527</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>343</v>
+      </c>
+      <c r="N22" s="7">
+        <v>302946</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M22" s="7">
-        <v>10</v>
-      </c>
-      <c r="N22" s="7">
-        <v>7301</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7">
-        <v>852</v>
+        <v>62081</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>139</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I23" s="7">
-        <v>4875</v>
+        <v>82684</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>140</v>
@@ -2086,172 +2074,172 @@
         <v>142</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="N23" s="7">
-        <v>5727</v>
+        <v>144765</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>18864</v>
+        <v>10384</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>10428</v>
+        <v>15639</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>29292</v>
+        <v>26023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>90530</v>
+        <v>163</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3031</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="7">
-        <v>80</v>
-      </c>
-      <c r="I25" s="7">
-        <v>68367</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3194</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M25" s="7">
-        <v>175</v>
-      </c>
-      <c r="N25" s="7">
-        <v>158897</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>154160</v>
+        <v>1269</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3186</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="7">
-        <v>163</v>
-      </c>
-      <c r="I26" s="7">
-        <v>114349</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4456</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" s="7">
-        <v>347</v>
-      </c>
-      <c r="N26" s="7">
-        <v>268509</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,10 +2248,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
-        <v>267180</v>
+        <v>210472</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>51</v>
@@ -2275,10 +2263,10 @@
         <v>51</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>270912</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -2290,10 +2278,10 @@
         <v>51</v>
       </c>
       <c r="M27" s="7">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N27" s="7">
-        <v>469726</v>
+        <v>481384</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>51</v>
@@ -2307,7 +2295,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
